--- a/format file/format.xlsx
+++ b/format file/format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kusha\OneDrive\Desktop\excel_automation\excel_automation\format file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C44B92-72D3-473F-A353-BE05AB23A643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4667E51A-7C05-4E3A-B0BB-3C051A723367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,20 +809,59 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,50 +881,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,9 +1151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CP1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" zoomScale="76" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="76" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CH7" sqref="CH7"/>
+      <selection pane="bottomLeft" activeCell="CL7" sqref="CL7:CN50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1171,98 +1171,98 @@
     <row r="1" spans="1:94" ht="7.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="47"/>
-      <c r="BV1" s="47"/>
-      <c r="BW1" s="47"/>
-      <c r="BX1" s="47"/>
-      <c r="BY1" s="47"/>
-      <c r="BZ1" s="47"/>
-      <c r="CA1" s="47"/>
-      <c r="CB1" s="47"/>
-      <c r="CC1" s="47"/>
-      <c r="CD1" s="47"/>
-      <c r="CE1" s="47"/>
-      <c r="CF1" s="47"/>
-      <c r="CG1" s="47"/>
-      <c r="CH1" s="47"/>
-      <c r="CI1" s="47"/>
-      <c r="CJ1" s="47"/>
-      <c r="CK1" s="47"/>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47"/>
-      <c r="CN1" s="47"/>
+      <c r="C1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="60"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="60"/>
+      <c r="BZ1" s="60"/>
+      <c r="CA1" s="60"/>
+      <c r="CB1" s="60"/>
+      <c r="CC1" s="60"/>
+      <c r="CD1" s="60"/>
+      <c r="CE1" s="60"/>
+      <c r="CF1" s="60"/>
+      <c r="CG1" s="60"/>
+      <c r="CH1" s="60"/>
+      <c r="CI1" s="60"/>
+      <c r="CJ1" s="60"/>
+      <c r="CK1" s="60"/>
+      <c r="CL1" s="60"/>
+      <c r="CM1" s="60"/>
+      <c r="CN1" s="60"/>
       <c r="CO1" s="1"/>
       <c r="CP1" s="1"/>
     </row>
@@ -1278,21 +1278,21 @@
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
       <c r="W2" s="6"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="6"/>
@@ -1464,225 +1464,225 @@
     </row>
     <row r="4" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="53"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="42"/>
       <c r="AL4" s="43"/>
-      <c r="AM4" s="42"/>
+      <c r="AM4" s="44"/>
       <c r="AN4" s="43"/>
-      <c r="AO4" s="42"/>
+      <c r="AO4" s="44"/>
       <c r="AP4" s="43"/>
-      <c r="AQ4" s="42"/>
+      <c r="AQ4" s="44"/>
       <c r="AR4" s="43"/>
-      <c r="AS4" s="42"/>
+      <c r="AS4" s="44"/>
       <c r="AT4" s="43"/>
-      <c r="AU4" s="42"/>
+      <c r="AU4" s="44"/>
       <c r="AV4" s="43"/>
-      <c r="AW4" s="42"/>
+      <c r="AW4" s="44"/>
       <c r="AX4" s="43"/>
-      <c r="AY4" s="42"/>
+      <c r="AY4" s="44"/>
       <c r="AZ4" s="43"/>
-      <c r="BA4" s="42"/>
+      <c r="BA4" s="44"/>
       <c r="BB4" s="43"/>
-      <c r="BC4" s="42"/>
+      <c r="BC4" s="44"/>
       <c r="BD4" s="43"/>
-      <c r="BE4" s="42"/>
+      <c r="BE4" s="44"/>
       <c r="BF4" s="43"/>
-      <c r="BG4" s="42"/>
+      <c r="BG4" s="44"/>
       <c r="BH4" s="43"/>
-      <c r="BI4" s="42"/>
+      <c r="BI4" s="44"/>
       <c r="BJ4" s="43"/>
-      <c r="BK4" s="42"/>
+      <c r="BK4" s="44"/>
       <c r="BL4" s="43"/>
-      <c r="BM4" s="42"/>
+      <c r="BM4" s="44"/>
       <c r="BN4" s="43"/>
-      <c r="BO4" s="42"/>
+      <c r="BO4" s="44"/>
       <c r="BP4" s="43"/>
-      <c r="BQ4" s="42"/>
+      <c r="BQ4" s="44"/>
       <c r="BR4" s="43"/>
-      <c r="BS4" s="42"/>
+      <c r="BS4" s="44"/>
       <c r="BT4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="54"/>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
       <c r="CE4" s="55"/>
-      <c r="CF4" s="62" t="s">
+      <c r="CF4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="CG4" s="58"/>
-      <c r="CH4" s="63"/>
-      <c r="CI4" s="64" t="s">
+      <c r="CG4" s="46"/>
+      <c r="CH4" s="47"/>
+      <c r="CI4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="CJ4" s="65"/>
-      <c r="CK4" s="66"/>
-      <c r="CL4" s="57" t="s">
+      <c r="CJ4" s="49"/>
+      <c r="CK4" s="50"/>
+      <c r="CL4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="CM4" s="58"/>
-      <c r="CN4" s="59"/>
+      <c r="CM4" s="46"/>
+      <c r="CN4" s="52"/>
       <c r="CO4" s="20"/>
       <c r="CP4" s="20"/>
     </row>
     <row r="5" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="42"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="42"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="44"/>
       <c r="BT5" s="43"/>
-      <c r="BU5" s="42"/>
+      <c r="BU5" s="44"/>
       <c r="BV5" s="43"/>
-      <c r="BW5" s="42"/>
+      <c r="BW5" s="44"/>
       <c r="BX5" s="43"/>
-      <c r="BY5" s="42"/>
+      <c r="BY5" s="44"/>
       <c r="BZ5" s="43"/>
-      <c r="CA5" s="42"/>
+      <c r="CA5" s="44"/>
       <c r="CB5" s="43"/>
-      <c r="CC5" s="42"/>
+      <c r="CC5" s="44"/>
       <c r="CD5" s="43"/>
-      <c r="CE5" s="42"/>
+      <c r="CE5" s="44"/>
       <c r="CF5" s="43"/>
-      <c r="CG5" s="54"/>
-      <c r="CH5" s="42"/>
-      <c r="CI5" s="60" t="s">
+      <c r="CG5" s="53"/>
+      <c r="CH5" s="44"/>
+      <c r="CI5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="CJ5" s="54"/>
+      <c r="CJ5" s="53"/>
       <c r="CK5" s="55"/>
-      <c r="CL5" s="61" t="s">
+      <c r="CL5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="CM5" s="61" t="s">
+      <c r="CM5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="CN5" s="56" t="s">
+      <c r="CN5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="CO5" s="44" t="s">
+      <c r="CO5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="CP5" s="44" t="s">
+      <c r="CP5" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
@@ -1944,11 +1944,11 @@
       <c r="CK6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="CL6" s="45"/>
-      <c r="CM6" s="45"/>
-      <c r="CN6" s="45"/>
-      <c r="CO6" s="45"/>
-      <c r="CP6" s="45"/>
+      <c r="CL6" s="57"/>
+      <c r="CM6" s="57"/>
+      <c r="CN6" s="57"/>
+      <c r="CO6" s="57"/>
+      <c r="CP6" s="57"/>
     </row>
     <row r="7" spans="1:94" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -2095,15 +2095,15 @@
         <v>0</v>
       </c>
       <c r="CL7" s="34">
-        <f t="shared" ref="CL7:CN7" si="9">COUNTIF($D8:$BS8,CL$5)</f>
+        <f>COUNTIF($D7:$BS7,CL$5)</f>
         <v>0</v>
       </c>
       <c r="CM7" s="34">
-        <f t="shared" si="9"/>
+        <f>COUNTIF($D7:$BS7,CM$5)</f>
         <v>0</v>
       </c>
       <c r="CN7" s="34">
-        <f t="shared" si="9"/>
+        <f>COUNTIF($D7:$BS7,CN$5)</f>
         <v>0</v>
       </c>
       <c r="CO7" s="30"/>
@@ -2182,59 +2182,59 @@
       <c r="BR8" s="31"/>
       <c r="BS8" s="31"/>
       <c r="BT8" s="33">
-        <f t="shared" ref="BT8:BU8" si="10">SUM(D8,F8,H8,J8,L8,N8,P8)</f>
+        <f t="shared" ref="BT8:BU8" si="9">SUM(D8,F8,H8,J8,L8,N8,P8)</f>
         <v>0</v>
       </c>
       <c r="BU8" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="33">
+        <f t="shared" ref="BV8:BW8" si="10">SUM(X8,R8,T8,V8,Z8,AB8,AD8)</f>
+        <v>0</v>
+      </c>
+      <c r="BW8" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BV8" s="33">
-        <f t="shared" ref="BV8:BW8" si="11">SUM(X8,R8,T8,V8,Z8,AB8,AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="BW8" s="33">
+      <c r="BX8" s="33">
+        <f t="shared" ref="BX8:BY8" si="11">SUM(AF8,AH8,AJ8,AL8,AN8,AP8,AR8)</f>
+        <v>0</v>
+      </c>
+      <c r="BY8" s="33">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BX8" s="33">
-        <f t="shared" ref="BX8:BY8" si="12">SUM(AF8,AH8,AJ8,AL8,AN8,AP8,AR8)</f>
-        <v>0</v>
-      </c>
-      <c r="BY8" s="33">
+      <c r="BZ8" s="33">
+        <f t="shared" ref="BZ8:CA8" si="12">SUM(AT8,AV8,AX8,AZ8,BB8,BD8,BF8)</f>
+        <v>0</v>
+      </c>
+      <c r="CA8" s="33">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BZ8" s="33">
-        <f t="shared" ref="BZ8:CA8" si="13">SUM(AT8,AV8,AX8,AZ8,BB8,BD8,BF8)</f>
-        <v>0</v>
-      </c>
-      <c r="CA8" s="33">
+      <c r="CB8" s="33">
+        <f t="shared" ref="CB8:CC8" si="13">SUM(BH8,BJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="CC8" s="33">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="CB8" s="33">
-        <f t="shared" ref="CB8:CC8" si="14">SUM(BH8,BJ8)</f>
-        <v>0</v>
-      </c>
-      <c r="CC8" s="33">
+      <c r="CD8" s="33">
+        <f t="shared" ref="CD8:CE8" si="14">SUM(BL8,BN8,BP8,BR8)</f>
+        <v>0</v>
+      </c>
+      <c r="CE8" s="33">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="CD8" s="33">
-        <f t="shared" ref="CD8:CE8" si="15">SUM(BL8,BN8,BP8,BR8)</f>
-        <v>0</v>
-      </c>
-      <c r="CE8" s="33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="CF8" s="33">
-        <f t="shared" ref="CF8:CF50" si="16">SUM(D8,F8,H8,J8,L8,N8,P8,R8,T8,V8,X8,Z8,AB8,AD8)</f>
+        <f t="shared" ref="CF8:CF50" si="15">SUM(D8,F8,H8,J8,L8,N8,P8,R8,T8,V8,X8,Z8,AB8,AD8)</f>
         <v>0</v>
       </c>
       <c r="CG8" s="33">
-        <f t="shared" ref="CG8:CG50" si="17">SUM(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8)</f>
+        <f t="shared" ref="CG8:CG50" si="16">SUM(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8)</f>
         <v>0</v>
       </c>
       <c r="CH8" s="33">
@@ -2242,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="CI8" s="33">
-        <f t="shared" ref="CI8:CJ8" si="18">SUM(BT8,BV8,BX8,BZ8,CB8)</f>
+        <f t="shared" ref="CI8:CJ8" si="17">SUM(BT8,BV8,BX8,BZ8,CB8)</f>
         <v>0</v>
       </c>
       <c r="CJ8" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CK8" s="33">
@@ -2254,15 +2254,15 @@
         <v>0</v>
       </c>
       <c r="CL8" s="34">
-        <f t="shared" ref="CL8:CN8" si="19">COUNTIF($D9:$BS9,CL$5)</f>
+        <f t="shared" ref="CL8:CN50" si="18">COUNTIF($D8:$BS8,CL$5)</f>
         <v>0</v>
       </c>
       <c r="CM8" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN8" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO8" s="30"/>
@@ -2341,59 +2341,59 @@
       <c r="BR9" s="31"/>
       <c r="BS9" s="31"/>
       <c r="BT9" s="33">
-        <f t="shared" ref="BT9:BU9" si="20">SUM(D9,F9,H9,J9,L9,N9,P9)</f>
+        <f t="shared" ref="BT9:BU9" si="19">SUM(D9,F9,H9,J9,L9,N9,P9)</f>
         <v>0</v>
       </c>
       <c r="BU9" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BV9" s="33">
+        <f t="shared" ref="BV9:BW9" si="20">SUM(X9,R9,T9,V9,Z9,AB9,AD9)</f>
+        <v>0</v>
+      </c>
+      <c r="BW9" s="33">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BV9" s="33">
-        <f t="shared" ref="BV9:BW9" si="21">SUM(X9,R9,T9,V9,Z9,AB9,AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="BW9" s="33">
+      <c r="BX9" s="33">
+        <f t="shared" ref="BX9:BY9" si="21">SUM(AF9,AH9,AJ9,AL9,AN9,AP9,AR9)</f>
+        <v>0</v>
+      </c>
+      <c r="BY9" s="33">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BX9" s="33">
-        <f t="shared" ref="BX9:BY9" si="22">SUM(AF9,AH9,AJ9,AL9,AN9,AP9,AR9)</f>
-        <v>0</v>
-      </c>
-      <c r="BY9" s="33">
+      <c r="BZ9" s="33">
+        <f t="shared" ref="BZ9:CA9" si="22">SUM(AT9,AV9,AX9,AZ9,BB9,BD9,BF9)</f>
+        <v>0</v>
+      </c>
+      <c r="CA9" s="33">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BZ9" s="33">
-        <f t="shared" ref="BZ9:CA9" si="23">SUM(AT9,AV9,AX9,AZ9,BB9,BD9,BF9)</f>
-        <v>0</v>
-      </c>
-      <c r="CA9" s="33">
+      <c r="CB9" s="33">
+        <f t="shared" ref="CB9:CC9" si="23">SUM(BH9,BJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="CC9" s="33">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="CB9" s="33">
-        <f t="shared" ref="CB9:CC9" si="24">SUM(BH9,BJ9)</f>
-        <v>0</v>
-      </c>
-      <c r="CC9" s="33">
+      <c r="CD9" s="33">
+        <f t="shared" ref="CD9:CE9" si="24">SUM(BL9,BN9,BP9,BR9)</f>
+        <v>0</v>
+      </c>
+      <c r="CE9" s="33">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="CD9" s="33">
-        <f t="shared" ref="CD9:CE9" si="25">SUM(BL9,BN9,BP9,BR9)</f>
-        <v>0</v>
-      </c>
-      <c r="CE9" s="33">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
       <c r="CF9" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG9" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG9" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH9" s="33">
@@ -2401,11 +2401,11 @@
         <v>0</v>
       </c>
       <c r="CI9" s="33">
-        <f t="shared" ref="CI9:CJ9" si="26">SUM(BT9,BV9,BX9,BZ9,CB9)</f>
+        <f t="shared" ref="CI9:CJ9" si="25">SUM(BT9,BV9,BX9,BZ9,CB9)</f>
         <v>0</v>
       </c>
       <c r="CJ9" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="CK9" s="33">
@@ -2413,15 +2413,15 @@
         <v>0</v>
       </c>
       <c r="CL9" s="34">
-        <f t="shared" ref="CL9:CN9" si="27">COUNTIF($D10:$BS10,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM9" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN9" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO9" s="30"/>
@@ -2500,59 +2500,59 @@
       <c r="BR10" s="31"/>
       <c r="BS10" s="31"/>
       <c r="BT10" s="33">
-        <f t="shared" ref="BT10:BU10" si="28">SUM(D10,F10,H10,J10,L10,N10,P10)</f>
+        <f t="shared" ref="BT10:BU10" si="26">SUM(D10,F10,H10,J10,L10,N10,P10)</f>
         <v>0</v>
       </c>
       <c r="BU10" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BV10" s="33">
+        <f t="shared" ref="BV10:BW10" si="27">SUM(X10,R10,T10,V10,Z10,AB10,AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="BW10" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BX10" s="33">
+        <f t="shared" ref="BX10:BY10" si="28">SUM(AF10,AH10,AJ10,AL10,AN10,AP10,AR10)</f>
+        <v>0</v>
+      </c>
+      <c r="BY10" s="33">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="BV10" s="33">
-        <f t="shared" ref="BV10:BW10" si="29">SUM(X10,R10,T10,V10,Z10,AB10,AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="BW10" s="33">
+      <c r="BZ10" s="33">
+        <f t="shared" ref="BZ10:CA10" si="29">SUM(AT10,AV10,AX10,AZ10,BB10,BD10,BF10)</f>
+        <v>0</v>
+      </c>
+      <c r="CA10" s="33">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BX10" s="33">
-        <f t="shared" ref="BX10:BY10" si="30">SUM(AF10,AH10,AJ10,AL10,AN10,AP10,AR10)</f>
-        <v>0</v>
-      </c>
-      <c r="BY10" s="33">
+      <c r="CB10" s="33">
+        <f t="shared" ref="CB10:CC10" si="30">SUM(BH10,BJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="CC10" s="33">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="BZ10" s="33">
-        <f t="shared" ref="BZ10:CA10" si="31">SUM(AT10,AV10,AX10,AZ10,BB10,BD10,BF10)</f>
-        <v>0</v>
-      </c>
-      <c r="CA10" s="33">
+      <c r="CD10" s="33">
+        <f t="shared" ref="CD10:CE10" si="31">SUM(BL10,BN10,BP10,BR10)</f>
+        <v>0</v>
+      </c>
+      <c r="CE10" s="33">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="CB10" s="33">
-        <f t="shared" ref="CB10:CC10" si="32">SUM(BH10,BJ10)</f>
-        <v>0</v>
-      </c>
-      <c r="CC10" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="CD10" s="33">
-        <f t="shared" ref="CD10:CE10" si="33">SUM(BL10,BN10,BP10,BR10)</f>
-        <v>0</v>
-      </c>
-      <c r="CE10" s="33">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
       <c r="CF10" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG10" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG10" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH10" s="33">
@@ -2560,11 +2560,11 @@
         <v>0</v>
       </c>
       <c r="CI10" s="33">
-        <f t="shared" ref="CI10:CJ10" si="34">SUM(BT10,BV10,BX10,BZ10,CB10)</f>
+        <f t="shared" ref="CI10:CJ10" si="32">SUM(BT10,BV10,BX10,BZ10,CB10)</f>
         <v>0</v>
       </c>
       <c r="CJ10" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CK10" s="33">
@@ -2572,15 +2572,15 @@
         <v>0</v>
       </c>
       <c r="CL10" s="34">
-        <f t="shared" ref="CL10:CN10" si="35">COUNTIF($D11:$BS11,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM10" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN10" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO10" s="30"/>
@@ -2659,59 +2659,59 @@
       <c r="BR11" s="31"/>
       <c r="BS11" s="31"/>
       <c r="BT11" s="33">
-        <f t="shared" ref="BT11:BU11" si="36">SUM(D11,F11,H11,J11,L11,N11,P11)</f>
+        <f t="shared" ref="BT11:BU11" si="33">SUM(D11,F11,H11,J11,L11,N11,P11)</f>
         <v>0</v>
       </c>
       <c r="BU11" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BV11" s="33">
+        <f t="shared" ref="BV11:BW11" si="34">SUM(X11,R11,T11,V11,Z11,AB11,AD11)</f>
+        <v>0</v>
+      </c>
+      <c r="BW11" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BX11" s="33">
+        <f t="shared" ref="BX11:BY11" si="35">SUM(AF11,AH11,AJ11,AL11,AN11,AP11,AR11)</f>
+        <v>0</v>
+      </c>
+      <c r="BY11" s="33">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="33">
+        <f t="shared" ref="BZ11:CA11" si="36">SUM(AT11,AV11,AX11,AZ11,BB11,BD11,BF11)</f>
+        <v>0</v>
+      </c>
+      <c r="CA11" s="33">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="BV11" s="33">
-        <f t="shared" ref="BV11:BW11" si="37">SUM(X11,R11,T11,V11,Z11,AB11,AD11)</f>
-        <v>0</v>
-      </c>
-      <c r="BW11" s="33">
+      <c r="CB11" s="33">
+        <f t="shared" ref="CB11:CC11" si="37">SUM(BH11,BJ11)</f>
+        <v>0</v>
+      </c>
+      <c r="CC11" s="33">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BX11" s="33">
-        <f t="shared" ref="BX11:BY11" si="38">SUM(AF11,AH11,AJ11,AL11,AN11,AP11,AR11)</f>
-        <v>0</v>
-      </c>
-      <c r="BY11" s="33">
+      <c r="CD11" s="33">
+        <f t="shared" ref="CD11:CE11" si="38">SUM(BL11,BN11,BP11,BR11)</f>
+        <v>0</v>
+      </c>
+      <c r="CE11" s="33">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="BZ11" s="33">
-        <f t="shared" ref="BZ11:CA11" si="39">SUM(AT11,AV11,AX11,AZ11,BB11,BD11,BF11)</f>
-        <v>0</v>
-      </c>
-      <c r="CA11" s="33">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="CB11" s="33">
-        <f t="shared" ref="CB11:CC11" si="40">SUM(BH11,BJ11)</f>
-        <v>0</v>
-      </c>
-      <c r="CC11" s="33">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="CD11" s="33">
-        <f t="shared" ref="CD11:CE11" si="41">SUM(BL11,BN11,BP11,BR11)</f>
-        <v>0</v>
-      </c>
-      <c r="CE11" s="33">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
       <c r="CF11" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG11" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG11" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH11" s="33">
@@ -2719,11 +2719,11 @@
         <v>0</v>
       </c>
       <c r="CI11" s="33">
-        <f t="shared" ref="CI11:CJ11" si="42">SUM(BT11,BV11,BX11,BZ11,CB11)</f>
+        <f t="shared" ref="CI11:CJ11" si="39">SUM(BT11,BV11,BX11,BZ11,CB11)</f>
         <v>0</v>
       </c>
       <c r="CJ11" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="CK11" s="33">
@@ -2731,15 +2731,15 @@
         <v>0</v>
       </c>
       <c r="CL11" s="34">
-        <f t="shared" ref="CL11:CN11" si="43">COUNTIF($D12:$BS12,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM11" s="34">
-        <f t="shared" si="43"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN11" s="34">
-        <f t="shared" si="43"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO11" s="29"/>
@@ -2818,59 +2818,59 @@
       <c r="BR12" s="31"/>
       <c r="BS12" s="31"/>
       <c r="BT12" s="33">
-        <f t="shared" ref="BT12:BU12" si="44">SUM(D12,F12,H12,J12,L12,N12,P12)</f>
+        <f t="shared" ref="BT12:BU12" si="40">SUM(D12,F12,H12,J12,L12,N12,P12)</f>
         <v>0</v>
       </c>
       <c r="BU12" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="33">
+        <f t="shared" ref="BV12:BW12" si="41">SUM(X12,R12,T12,V12,Z12,AB12,AD12)</f>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BX12" s="33">
+        <f t="shared" ref="BX12:BY12" si="42">SUM(AF12,AH12,AJ12,AL12,AN12,AP12,AR12)</f>
+        <v>0</v>
+      </c>
+      <c r="BY12" s="33">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="33">
+        <f t="shared" ref="BZ12:CA12" si="43">SUM(AT12,AV12,AX12,AZ12,BB12,BD12,BF12)</f>
+        <v>0</v>
+      </c>
+      <c r="CA12" s="33">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CB12" s="33">
+        <f t="shared" ref="CB12:CC12" si="44">SUM(BH12,BJ12)</f>
+        <v>0</v>
+      </c>
+      <c r="CC12" s="33">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="BV12" s="33">
-        <f t="shared" ref="BV12:BW12" si="45">SUM(X12,R12,T12,V12,Z12,AB12,AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="BW12" s="33">
+      <c r="CD12" s="33">
+        <f t="shared" ref="CD12:CE12" si="45">SUM(BL12,BN12,BP12,BR12)</f>
+        <v>0</v>
+      </c>
+      <c r="CE12" s="33">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="BX12" s="33">
-        <f t="shared" ref="BX12:BY12" si="46">SUM(AF12,AH12,AJ12,AL12,AN12,AP12,AR12)</f>
-        <v>0</v>
-      </c>
-      <c r="BY12" s="33">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="33">
-        <f t="shared" ref="BZ12:CA12" si="47">SUM(AT12,AV12,AX12,AZ12,BB12,BD12,BF12)</f>
-        <v>0</v>
-      </c>
-      <c r="CA12" s="33">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="CB12" s="33">
-        <f t="shared" ref="CB12:CC12" si="48">SUM(BH12,BJ12)</f>
-        <v>0</v>
-      </c>
-      <c r="CC12" s="33">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="CD12" s="33">
-        <f t="shared" ref="CD12:CE12" si="49">SUM(BL12,BN12,BP12,BR12)</f>
-        <v>0</v>
-      </c>
-      <c r="CE12" s="33">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
       <c r="CF12" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG12" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG12" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH12" s="33">
@@ -2878,11 +2878,11 @@
         <v>0</v>
       </c>
       <c r="CI12" s="33">
-        <f t="shared" ref="CI12:CJ12" si="50">SUM(BT12,BV12,BX12,BZ12,CB12)</f>
+        <f t="shared" ref="CI12:CJ12" si="46">SUM(BT12,BV12,BX12,BZ12,CB12)</f>
         <v>0</v>
       </c>
       <c r="CJ12" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="CK12" s="33">
@@ -2890,15 +2890,15 @@
         <v>0</v>
       </c>
       <c r="CL12" s="34">
-        <f t="shared" ref="CL12:CN12" si="51">COUNTIF($D13:$BS13,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM12" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN12" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO12" s="29"/>
@@ -2977,59 +2977,59 @@
       <c r="BR13" s="31"/>
       <c r="BS13" s="31"/>
       <c r="BT13" s="33">
-        <f t="shared" ref="BT13:BU13" si="52">SUM(D13,F13,H13,J13,L13,N13,P13)</f>
+        <f t="shared" ref="BT13:BU13" si="47">SUM(D13,F13,H13,J13,L13,N13,P13)</f>
         <v>0</v>
       </c>
       <c r="BU13" s="33">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="33">
+        <f t="shared" ref="BV13:BW13" si="48">SUM(X13,R13,T13,V13,Z13,AB13,AD13)</f>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="33">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BX13" s="33">
+        <f t="shared" ref="BX13:BY13" si="49">SUM(AF13,AH13,AJ13,AL13,AN13,AP13,AR13)</f>
+        <v>0</v>
+      </c>
+      <c r="BY13" s="33">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="33">
+        <f t="shared" ref="BZ13:CA13" si="50">SUM(AT13,AV13,AX13,AZ13,BB13,BD13,BF13)</f>
+        <v>0</v>
+      </c>
+      <c r="CA13" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="CB13" s="33">
+        <f t="shared" ref="CB13:CC13" si="51">SUM(BH13,BJ13)</f>
+        <v>0</v>
+      </c>
+      <c r="CC13" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="CD13" s="33">
+        <f t="shared" ref="CD13:CE13" si="52">SUM(BL13,BN13,BP13,BR13)</f>
+        <v>0</v>
+      </c>
+      <c r="CE13" s="33">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="BV13" s="33">
-        <f t="shared" ref="BV13:BW13" si="53">SUM(X13,R13,T13,V13,Z13,AB13,AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="BW13" s="33">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="BX13" s="33">
-        <f t="shared" ref="BX13:BY13" si="54">SUM(AF13,AH13,AJ13,AL13,AN13,AP13,AR13)</f>
-        <v>0</v>
-      </c>
-      <c r="BY13" s="33">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="33">
-        <f t="shared" ref="BZ13:CA13" si="55">SUM(AT13,AV13,AX13,AZ13,BB13,BD13,BF13)</f>
-        <v>0</v>
-      </c>
-      <c r="CA13" s="33">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="CB13" s="33">
-        <f t="shared" ref="CB13:CC13" si="56">SUM(BH13,BJ13)</f>
-        <v>0</v>
-      </c>
-      <c r="CC13" s="33">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="33">
-        <f t="shared" ref="CD13:CE13" si="57">SUM(BL13,BN13,BP13,BR13)</f>
-        <v>0</v>
-      </c>
-      <c r="CE13" s="33">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
       <c r="CF13" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG13" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG13" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH13" s="33">
@@ -3037,11 +3037,11 @@
         <v>0</v>
       </c>
       <c r="CI13" s="33">
-        <f t="shared" ref="CI13:CJ13" si="58">SUM(BT13,BV13,BX13,BZ13,CB13)</f>
+        <f t="shared" ref="CI13:CJ13" si="53">SUM(BT13,BV13,BX13,BZ13,CB13)</f>
         <v>0</v>
       </c>
       <c r="CJ13" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="CK13" s="33">
@@ -3049,15 +3049,15 @@
         <v>0</v>
       </c>
       <c r="CL13" s="34">
-        <f t="shared" ref="CL13:CN13" si="59">COUNTIF($D14:$BS14,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM13" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN13" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO13" s="29"/>
@@ -3136,59 +3136,59 @@
       <c r="BR14" s="31"/>
       <c r="BS14" s="31"/>
       <c r="BT14" s="33">
-        <f t="shared" ref="BT14:BU14" si="60">SUM(D14,F14,H14,J14,L14,N14,P14)</f>
+        <f t="shared" ref="BT14:BU14" si="54">SUM(D14,F14,H14,J14,L14,N14,P14)</f>
         <v>0</v>
       </c>
       <c r="BU14" s="33">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="BV14" s="33">
-        <f t="shared" ref="BV14:BW14" si="61">SUM(X14,R14,T14,V14,Z14,AB14,AD14)</f>
+        <f t="shared" ref="BV14:BW14" si="55">SUM(X14,R14,T14,V14,Z14,AB14,AD14)</f>
         <v>0</v>
       </c>
       <c r="BW14" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BX14" s="33">
-        <f t="shared" ref="BX14:BY14" si="62">SUM(AF14,AH14,AJ14,AL14,AN14,AP14,AR14)</f>
+        <f t="shared" ref="BX14:BY14" si="56">SUM(AF14,AH14,AJ14,AL14,AN14,AP14,AR14)</f>
         <v>0</v>
       </c>
       <c r="BY14" s="33">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BZ14" s="33">
-        <f t="shared" ref="BZ14:CA14" si="63">SUM(AT14,AV14,AX14,AZ14,BB14,BD14,BF14)</f>
+        <f t="shared" ref="BZ14:CA14" si="57">SUM(AT14,AV14,AX14,AZ14,BB14,BD14,BF14)</f>
         <v>0</v>
       </c>
       <c r="CA14" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CB14" s="33">
-        <f t="shared" ref="CB14:CC14" si="64">SUM(BH14,BJ14)</f>
+        <f t="shared" ref="CB14:CC14" si="58">SUM(BH14,BJ14)</f>
         <v>0</v>
       </c>
       <c r="CC14" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CD14" s="33">
-        <f t="shared" ref="CD14:CE14" si="65">SUM(BL14,BN14,BP14,BR14)</f>
+        <f t="shared" ref="CD14:CE14" si="59">SUM(BL14,BN14,BP14,BR14)</f>
         <v>0</v>
       </c>
       <c r="CE14" s="33">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="CF14" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG14" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG14" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH14" s="33">
@@ -3196,11 +3196,11 @@
         <v>0</v>
       </c>
       <c r="CI14" s="33">
-        <f t="shared" ref="CI14:CJ14" si="66">SUM(BT14,BV14,BX14,BZ14,CB14)</f>
+        <f t="shared" ref="CI14:CJ14" si="60">SUM(BT14,BV14,BX14,BZ14,CB14)</f>
         <v>0</v>
       </c>
       <c r="CJ14" s="33">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CK14" s="33">
@@ -3208,15 +3208,15 @@
         <v>0</v>
       </c>
       <c r="CL14" s="34">
-        <f t="shared" ref="CL14:CN14" si="67">COUNTIF($D15:$BS15,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM14" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN14" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO14" s="29"/>
@@ -3295,59 +3295,59 @@
       <c r="BR15" s="31"/>
       <c r="BS15" s="31"/>
       <c r="BT15" s="33">
-        <f t="shared" ref="BT15:BU15" si="68">SUM(D15,F15,H15,J15,L15,N15,P15)</f>
+        <f t="shared" ref="BT15:BU15" si="61">SUM(D15,F15,H15,J15,L15,N15,P15)</f>
         <v>0</v>
       </c>
       <c r="BU15" s="33">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BV15" s="33">
-        <f t="shared" ref="BV15:BW15" si="69">SUM(X15,R15,T15,V15,Z15,AB15,AD15)</f>
+        <f t="shared" ref="BV15:BW15" si="62">SUM(X15,R15,T15,V15,Z15,AB15,AD15)</f>
         <v>0</v>
       </c>
       <c r="BW15" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="BX15" s="33">
-        <f t="shared" ref="BX15:BY15" si="70">SUM(AF15,AH15,AJ15,AL15,AN15,AP15,AR15)</f>
+        <f t="shared" ref="BX15:BY15" si="63">SUM(AF15,AH15,AJ15,AL15,AN15,AP15,AR15)</f>
         <v>0</v>
       </c>
       <c r="BY15" s="33">
-        <f t="shared" si="70"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BZ15" s="33">
-        <f t="shared" ref="BZ15:CA15" si="71">SUM(AT15,AV15,AX15,AZ15,BB15,BD15,BF15)</f>
+        <f t="shared" ref="BZ15:CA15" si="64">SUM(AT15,AV15,AX15,AZ15,BB15,BD15,BF15)</f>
         <v>0</v>
       </c>
       <c r="CA15" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="CB15" s="33">
-        <f t="shared" ref="CB15:CC15" si="72">SUM(BH15,BJ15)</f>
+        <f t="shared" ref="CB15:CC15" si="65">SUM(BH15,BJ15)</f>
         <v>0</v>
       </c>
       <c r="CC15" s="33">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="CD15" s="33">
-        <f t="shared" ref="CD15:CE15" si="73">SUM(BL15,BN15,BP15,BR15)</f>
+        <f t="shared" ref="CD15:CE15" si="66">SUM(BL15,BN15,BP15,BR15)</f>
         <v>0</v>
       </c>
       <c r="CE15" s="33">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="CF15" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG15" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG15" s="33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CH15" s="33">
@@ -3355,11 +3355,11 @@
         <v>0</v>
       </c>
       <c r="CI15" s="33">
-        <f t="shared" ref="CI15:CJ15" si="74">SUM(BT15,BV15,BX15,BZ15,CB15)</f>
+        <f t="shared" ref="CI15:CJ15" si="67">SUM(BT15,BV15,BX15,BZ15,CB15)</f>
         <v>0</v>
       </c>
       <c r="CJ15" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="CK15" s="33">
@@ -3367,15 +3367,15 @@
         <v>0</v>
       </c>
       <c r="CL15" s="34">
-        <f t="shared" ref="CL15:CN30" si="75">COUNTIF($D16:$BS16,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM15" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN15" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO15" s="29"/>
@@ -3454,87 +3454,87 @@
       <c r="BR16" s="31"/>
       <c r="BS16" s="31"/>
       <c r="BT16" s="33">
-        <f t="shared" ref="BT16:BT40" si="76">SUM(D16,F16,H16,J16,L16,N16,P16)</f>
+        <f t="shared" ref="BT16:BT40" si="68">SUM(D16,F16,H16,J16,L16,N16,P16)</f>
         <v>0</v>
       </c>
       <c r="BU16" s="33">
-        <f t="shared" ref="BU16:BU40" si="77">SUM(E16,G16,I16,K16,M16,O16,Q16)</f>
+        <f t="shared" ref="BU16:BU40" si="69">SUM(E16,G16,I16,K16,M16,O16,Q16)</f>
         <v>0</v>
       </c>
       <c r="BV16" s="33">
-        <f t="shared" ref="BV16:BV40" si="78">SUM(X16,R16,T16,V16,Z16,AB16,AD16)</f>
+        <f t="shared" ref="BV16:BV40" si="70">SUM(X16,R16,T16,V16,Z16,AB16,AD16)</f>
         <v>0</v>
       </c>
       <c r="BW16" s="33">
-        <f t="shared" ref="BW16:BW40" si="79">SUM(Y16,S16,U16,W16,AA16,AC16,AE16)</f>
+        <f t="shared" ref="BW16:BW40" si="71">SUM(Y16,S16,U16,W16,AA16,AC16,AE16)</f>
         <v>0</v>
       </c>
       <c r="BX16" s="33">
-        <f t="shared" ref="BX16:BX40" si="80">SUM(AF16,AH16,AJ16,AL16,AN16,AP16,AR16)</f>
+        <f t="shared" ref="BX16:BX40" si="72">SUM(AF16,AH16,AJ16,AL16,AN16,AP16,AR16)</f>
         <v>0</v>
       </c>
       <c r="BY16" s="33">
-        <f t="shared" ref="BY16:BY40" si="81">SUM(AG16,AI16,AK16,AM16,AO16,AQ16,AS16)</f>
+        <f t="shared" ref="BY16:BY40" si="73">SUM(AG16,AI16,AK16,AM16,AO16,AQ16,AS16)</f>
         <v>0</v>
       </c>
       <c r="BZ16" s="33">
-        <f t="shared" ref="BZ16:BZ40" si="82">SUM(AT16,AV16,AX16,AZ16,BB16,BD16,BF16)</f>
+        <f t="shared" ref="BZ16:BZ40" si="74">SUM(AT16,AV16,AX16,AZ16,BB16,BD16,BF16)</f>
         <v>0</v>
       </c>
       <c r="CA16" s="33">
-        <f t="shared" ref="CA16:CA40" si="83">SUM(AU16,AW16,AY16,BA16,BC16,BE16,BG16)</f>
+        <f t="shared" ref="CA16:CA40" si="75">SUM(AU16,AW16,AY16,BA16,BC16,BE16,BG16)</f>
         <v>0</v>
       </c>
       <c r="CB16" s="33">
-        <f t="shared" ref="CB16:CB40" si="84">SUM(BH16,BJ16)</f>
+        <f t="shared" ref="CB16:CB40" si="76">SUM(BH16,BJ16)</f>
         <v>0</v>
       </c>
       <c r="CC16" s="33">
-        <f t="shared" ref="CC16:CC40" si="85">SUM(BI16,BK16)</f>
+        <f t="shared" ref="CC16:CC40" si="77">SUM(BI16,BK16)</f>
         <v>0</v>
       </c>
       <c r="CD16" s="33">
-        <f t="shared" ref="CD16:CD40" si="86">SUM(BL16,BN16,BP16,BR16)</f>
+        <f t="shared" ref="CD16:CD40" si="78">SUM(BL16,BN16,BP16,BR16)</f>
         <v>0</v>
       </c>
       <c r="CE16" s="33">
-        <f t="shared" ref="CE16:CE40" si="87">SUM(BM16,BO16,BQ16,BS16)</f>
+        <f t="shared" ref="CE16:CE40" si="79">SUM(BM16,BO16,BQ16,BS16)</f>
         <v>0</v>
       </c>
       <c r="CF16" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG16" s="33">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="CG16" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="CH16" s="33">
-        <f t="shared" ref="CH16:CH40" si="88">CF16-CG16</f>
+        <f t="shared" ref="CH16:CH40" si="80">CF16-CG16</f>
         <v>0</v>
       </c>
       <c r="CI16" s="33">
-        <f t="shared" ref="CI16:CI40" si="89">SUM(BT16,BV16,BX16,BZ16,CB16)</f>
+        <f t="shared" ref="CI16:CI40" si="81">SUM(BT16,BV16,BX16,BZ16,CB16)</f>
         <v>0</v>
       </c>
       <c r="CJ16" s="33">
-        <f t="shared" ref="CJ16:CJ40" si="90">SUM(BU16,BW16,BY16,CA16,CC16)</f>
+        <f t="shared" ref="CJ16:CJ40" si="82">SUM(BU16,BW16,BY16,CA16,CC16)</f>
         <v>0</v>
       </c>
       <c r="CK16" s="33">
-        <f t="shared" ref="CK16:CK40" si="91">CJ16-CI16</f>
+        <f t="shared" ref="CK16:CK40" si="83">CJ16-CI16</f>
         <v>0</v>
       </c>
       <c r="CL16" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM16" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN16" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO16" s="29"/>
@@ -3613,87 +3613,87 @@
       <c r="BR17" s="31"/>
       <c r="BS17" s="31"/>
       <c r="BT17" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY17" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB17" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU17" s="33">
+      <c r="CC17" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV17" s="33">
+      <c r="CD17" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW17" s="33">
+      <c r="CE17" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX17" s="33">
+      <c r="CF17" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG17" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH17" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY17" s="33">
+      <c r="CI17" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ17" s="33">
+      <c r="CJ17" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA17" s="33">
+      <c r="CK17" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB17" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC17" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD17" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE17" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF17" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG17" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH17" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI17" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ17" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK17" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL17" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM17" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN17" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO17" s="29"/>
@@ -3772,87 +3772,87 @@
       <c r="BR18" s="31"/>
       <c r="BS18" s="31"/>
       <c r="BT18" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY18" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA18" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB18" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU18" s="33">
+      <c r="CC18" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV18" s="33">
+      <c r="CD18" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW18" s="33">
+      <c r="CE18" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX18" s="33">
+      <c r="CF18" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG18" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH18" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY18" s="33">
+      <c r="CI18" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ18" s="33">
+      <c r="CJ18" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA18" s="33">
+      <c r="CK18" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB18" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC18" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD18" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE18" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF18" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG18" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH18" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI18" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ18" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK18" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL18" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM18" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN18" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO18" s="29"/>
@@ -3931,87 +3931,87 @@
       <c r="BR19" s="31"/>
       <c r="BS19" s="31"/>
       <c r="BT19" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV19" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX19" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY19" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA19" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB19" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU19" s="33">
+      <c r="CC19" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV19" s="33">
+      <c r="CD19" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW19" s="33">
+      <c r="CE19" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX19" s="33">
+      <c r="CF19" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG19" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH19" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY19" s="33">
+      <c r="CI19" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ19" s="33">
+      <c r="CJ19" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA19" s="33">
+      <c r="CK19" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB19" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC19" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD19" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE19" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF19" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG19" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH19" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI19" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ19" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK19" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL19" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM19" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN19" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO19" s="29"/>
@@ -4090,87 +4090,87 @@
       <c r="BR20" s="31"/>
       <c r="BS20" s="31"/>
       <c r="BT20" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV20" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW20" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX20" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY20" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA20" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB20" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU20" s="33">
+      <c r="CC20" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV20" s="33">
+      <c r="CD20" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW20" s="33">
+      <c r="CE20" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX20" s="33">
+      <c r="CF20" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG20" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH20" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY20" s="33">
+      <c r="CI20" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ20" s="33">
+      <c r="CJ20" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA20" s="33">
+      <c r="CK20" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB20" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC20" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD20" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE20" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF20" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG20" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH20" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI20" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ20" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK20" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL20" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM20" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN20" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO20" s="29"/>
@@ -4249,87 +4249,87 @@
       <c r="BR21" s="31"/>
       <c r="BS21" s="31"/>
       <c r="BT21" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV21" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW21" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX21" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY21" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA21" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB21" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU21" s="33">
+      <c r="CC21" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV21" s="33">
+      <c r="CD21" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW21" s="33">
+      <c r="CE21" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX21" s="33">
+      <c r="CF21" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH21" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY21" s="33">
+      <c r="CI21" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ21" s="33">
+      <c r="CJ21" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA21" s="33">
+      <c r="CK21" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB21" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC21" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD21" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE21" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF21" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG21" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH21" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI21" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ21" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK21" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL21" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM21" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN21" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO21" s="29"/>
@@ -4408,87 +4408,87 @@
       <c r="BR22" s="31"/>
       <c r="BS22" s="31"/>
       <c r="BT22" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU22" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV22" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW22" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX22" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY22" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA22" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB22" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU22" s="33">
+      <c r="CC22" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV22" s="33">
+      <c r="CD22" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW22" s="33">
+      <c r="CE22" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX22" s="33">
+      <c r="CF22" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG22" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH22" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY22" s="33">
+      <c r="CI22" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ22" s="33">
+      <c r="CJ22" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA22" s="33">
+      <c r="CK22" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB22" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC22" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD22" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE22" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF22" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG22" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH22" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI22" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ22" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK22" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL22" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM22" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN22" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO22" s="29"/>
@@ -4567,87 +4567,87 @@
       <c r="BR23" s="31"/>
       <c r="BS23" s="31"/>
       <c r="BT23" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU23" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV23" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW23" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX23" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY23" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA23" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB23" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU23" s="33">
+      <c r="CC23" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV23" s="33">
+      <c r="CD23" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW23" s="33">
+      <c r="CE23" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX23" s="33">
+      <c r="CF23" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG23" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH23" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY23" s="33">
+      <c r="CI23" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ23" s="33">
+      <c r="CJ23" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA23" s="33">
+      <c r="CK23" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB23" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC23" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD23" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE23" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF23" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG23" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH23" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI23" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ23" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK23" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL23" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM23" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN23" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO23" s="29"/>
@@ -4726,87 +4726,87 @@
       <c r="BR24" s="31"/>
       <c r="BS24" s="31"/>
       <c r="BT24" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV24" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW24" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX24" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY24" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA24" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB24" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU24" s="33">
+      <c r="CC24" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV24" s="33">
+      <c r="CD24" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW24" s="33">
+      <c r="CE24" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX24" s="33">
+      <c r="CF24" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG24" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH24" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY24" s="33">
+      <c r="CI24" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ24" s="33">
+      <c r="CJ24" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA24" s="33">
+      <c r="CK24" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB24" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC24" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD24" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE24" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF24" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG24" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH24" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI24" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ24" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK24" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL24" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM24" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN24" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO24" s="29"/>
@@ -4885,87 +4885,87 @@
       <c r="BR25" s="31"/>
       <c r="BS25" s="31"/>
       <c r="BT25" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU25" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV25" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW25" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX25" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY25" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA25" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB25" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU25" s="33">
+      <c r="CC25" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV25" s="33">
+      <c r="CD25" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW25" s="33">
+      <c r="CE25" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX25" s="33">
+      <c r="CF25" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG25" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH25" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY25" s="33">
+      <c r="CI25" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ25" s="33">
+      <c r="CJ25" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA25" s="33">
+      <c r="CK25" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB25" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC25" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD25" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE25" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF25" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG25" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH25" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI25" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ25" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK25" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL25" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM25" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN25" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO25" s="29"/>
@@ -5044,87 +5044,87 @@
       <c r="BR26" s="31"/>
       <c r="BS26" s="31"/>
       <c r="BT26" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU26" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV26" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW26" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX26" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY26" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA26" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB26" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU26" s="33">
+      <c r="CC26" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV26" s="33">
+      <c r="CD26" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW26" s="33">
+      <c r="CE26" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX26" s="33">
+      <c r="CF26" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG26" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH26" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY26" s="33">
+      <c r="CI26" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ26" s="33">
+      <c r="CJ26" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA26" s="33">
+      <c r="CK26" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB26" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC26" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD26" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE26" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF26" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG26" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH26" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI26" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ26" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK26" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL26" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM26" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN26" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO26" s="29"/>
@@ -5203,87 +5203,87 @@
       <c r="BR27" s="31"/>
       <c r="BS27" s="31"/>
       <c r="BT27" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU27" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV27" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW27" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX27" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY27" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA27" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB27" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU27" s="33">
+      <c r="CC27" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV27" s="33">
+      <c r="CD27" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW27" s="33">
+      <c r="CE27" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX27" s="33">
+      <c r="CF27" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG27" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH27" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY27" s="33">
+      <c r="CI27" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ27" s="33">
+      <c r="CJ27" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA27" s="33">
+      <c r="CK27" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB27" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC27" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD27" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE27" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF27" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG27" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH27" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI27" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ27" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK27" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL27" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM27" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN27" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO27" s="29"/>
@@ -5362,87 +5362,87 @@
       <c r="BR28" s="31"/>
       <c r="BS28" s="31"/>
       <c r="BT28" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU28" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV28" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW28" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX28" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY28" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA28" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB28" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU28" s="33">
+      <c r="CC28" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV28" s="33">
+      <c r="CD28" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW28" s="33">
+      <c r="CE28" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX28" s="33">
+      <c r="CF28" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG28" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH28" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY28" s="33">
+      <c r="CI28" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ28" s="33">
+      <c r="CJ28" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA28" s="33">
+      <c r="CK28" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB28" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC28" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD28" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE28" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF28" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG28" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH28" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI28" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ28" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK28" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL28" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM28" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN28" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO28" s="29"/>
@@ -5521,87 +5521,87 @@
       <c r="BR29" s="31"/>
       <c r="BS29" s="31"/>
       <c r="BT29" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU29" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV29" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW29" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX29" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY29" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA29" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB29" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU29" s="33">
+      <c r="CC29" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV29" s="33">
+      <c r="CD29" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW29" s="33">
+      <c r="CE29" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX29" s="33">
+      <c r="CF29" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG29" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH29" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY29" s="33">
+      <c r="CI29" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ29" s="33">
+      <c r="CJ29" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA29" s="33">
+      <c r="CK29" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB29" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC29" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD29" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE29" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF29" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG29" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH29" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI29" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ29" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK29" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL29" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM29" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN29" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO29" s="29"/>
@@ -5680,87 +5680,87 @@
       <c r="BR30" s="31"/>
       <c r="BS30" s="31"/>
       <c r="BT30" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU30" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV30" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW30" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX30" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY30" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA30" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB30" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU30" s="33">
+      <c r="CC30" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV30" s="33">
+      <c r="CD30" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW30" s="33">
+      <c r="CE30" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX30" s="33">
+      <c r="CF30" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH30" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY30" s="33">
+      <c r="CI30" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ30" s="33">
+      <c r="CJ30" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA30" s="33">
+      <c r="CK30" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB30" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC30" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD30" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE30" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF30" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG30" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH30" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI30" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ30" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK30" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL30" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM30" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN30" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO30" s="29"/>
@@ -5839,87 +5839,87 @@
       <c r="BR31" s="31"/>
       <c r="BS31" s="31"/>
       <c r="BT31" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU31" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV31" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW31" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX31" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY31" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA31" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB31" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU31" s="33">
+      <c r="CC31" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV31" s="33">
+      <c r="CD31" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW31" s="33">
+      <c r="CE31" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX31" s="33">
+      <c r="CF31" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG31" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH31" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY31" s="33">
+      <c r="CI31" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ31" s="33">
+      <c r="CJ31" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA31" s="33">
+      <c r="CK31" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB31" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC31" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD31" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE31" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF31" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG31" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH31" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI31" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ31" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK31" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL31" s="34">
-        <f t="shared" ref="CL31:CN50" si="92">COUNTIF($D32:$BS32,CL$5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM31" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN31" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO31" s="29"/>
@@ -5998,87 +5998,87 @@
       <c r="BR32" s="31"/>
       <c r="BS32" s="31"/>
       <c r="BT32" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU32" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV32" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW32" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX32" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY32" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA32" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB32" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU32" s="33">
+      <c r="CC32" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV32" s="33">
+      <c r="CD32" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW32" s="33">
+      <c r="CE32" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX32" s="33">
+      <c r="CF32" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG32" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH32" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY32" s="33">
+      <c r="CI32" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ32" s="33">
+      <c r="CJ32" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA32" s="33">
+      <c r="CK32" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB32" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC32" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD32" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE32" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF32" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG32" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH32" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI32" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ32" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK32" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN32" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO32" s="29"/>
@@ -6157,87 +6157,87 @@
       <c r="BR33" s="31"/>
       <c r="BS33" s="31"/>
       <c r="BT33" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU33" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV33" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW33" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX33" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY33" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA33" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB33" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU33" s="33">
+      <c r="CC33" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV33" s="33">
+      <c r="CD33" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW33" s="33">
+      <c r="CE33" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX33" s="33">
+      <c r="CF33" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG33" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH33" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY33" s="33">
+      <c r="CI33" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ33" s="33">
+      <c r="CJ33" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA33" s="33">
+      <c r="CK33" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB33" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC33" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD33" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE33" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF33" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG33" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH33" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI33" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ33" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK33" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL33" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM33" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN33" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO33" s="29"/>
@@ -6316,87 +6316,87 @@
       <c r="BR34" s="31"/>
       <c r="BS34" s="31"/>
       <c r="BT34" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU34" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV34" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW34" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX34" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY34" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA34" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB34" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU34" s="33">
+      <c r="CC34" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV34" s="33">
+      <c r="CD34" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW34" s="33">
+      <c r="CE34" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX34" s="33">
+      <c r="CF34" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG34" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH34" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY34" s="33">
+      <c r="CI34" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ34" s="33">
+      <c r="CJ34" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA34" s="33">
+      <c r="CK34" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB34" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC34" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD34" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE34" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF34" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG34" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH34" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI34" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ34" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK34" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL34" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM34" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN34" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO34" s="29"/>
@@ -6475,87 +6475,87 @@
       <c r="BR35" s="31"/>
       <c r="BS35" s="31"/>
       <c r="BT35" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU35" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV35" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW35" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX35" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY35" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA35" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB35" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU35" s="33">
+      <c r="CC35" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV35" s="33">
+      <c r="CD35" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW35" s="33">
+      <c r="CE35" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX35" s="33">
+      <c r="CF35" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG35" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH35" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY35" s="33">
+      <c r="CI35" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ35" s="33">
+      <c r="CJ35" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA35" s="33">
+      <c r="CK35" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB35" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC35" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD35" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE35" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF35" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG35" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH35" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI35" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ35" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK35" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL35" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM35" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN35" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO35" s="29"/>
@@ -6634,87 +6634,87 @@
       <c r="BR36" s="31"/>
       <c r="BS36" s="31"/>
       <c r="BT36" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU36" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV36" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW36" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX36" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY36" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA36" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB36" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU36" s="33">
+      <c r="CC36" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV36" s="33">
+      <c r="CD36" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW36" s="33">
+      <c r="CE36" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX36" s="33">
+      <c r="CF36" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG36" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH36" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY36" s="33">
+      <c r="CI36" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ36" s="33">
+      <c r="CJ36" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA36" s="33">
+      <c r="CK36" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB36" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC36" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD36" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE36" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF36" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG36" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH36" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI36" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ36" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK36" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL36" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM36" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN36" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO36" s="29"/>
@@ -6793,87 +6793,87 @@
       <c r="BR37" s="31"/>
       <c r="BS37" s="31"/>
       <c r="BT37" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU37" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV37" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW37" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX37" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY37" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA37" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB37" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU37" s="33">
+      <c r="CC37" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV37" s="33">
+      <c r="CD37" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW37" s="33">
+      <c r="CE37" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX37" s="33">
+      <c r="CF37" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG37" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH37" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY37" s="33">
+      <c r="CI37" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ37" s="33">
+      <c r="CJ37" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA37" s="33">
+      <c r="CK37" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB37" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC37" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD37" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE37" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF37" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG37" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH37" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI37" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ37" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK37" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL37" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM37" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN37" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO37" s="29"/>
@@ -6952,87 +6952,87 @@
       <c r="BR38" s="31"/>
       <c r="BS38" s="31"/>
       <c r="BT38" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU38" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV38" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW38" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX38" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY38" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA38" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB38" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU38" s="33">
+      <c r="CC38" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV38" s="33">
+      <c r="CD38" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW38" s="33">
+      <c r="CE38" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX38" s="33">
+      <c r="CF38" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH38" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY38" s="33">
+      <c r="CI38" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ38" s="33">
+      <c r="CJ38" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA38" s="33">
+      <c r="CK38" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB38" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC38" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD38" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE38" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF38" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG38" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH38" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI38" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ38" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK38" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL38" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM38" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN38" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO38" s="29"/>
@@ -7111,87 +7111,87 @@
       <c r="BR39" s="31"/>
       <c r="BS39" s="31"/>
       <c r="BT39" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU39" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV39" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW39" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX39" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY39" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA39" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB39" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU39" s="33">
+      <c r="CC39" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV39" s="33">
+      <c r="CD39" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW39" s="33">
+      <c r="CE39" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX39" s="33">
+      <c r="CF39" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG39" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH39" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY39" s="33">
+      <c r="CI39" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ39" s="33">
+      <c r="CJ39" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA39" s="33">
+      <c r="CK39" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB39" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC39" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD39" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE39" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF39" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG39" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH39" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI39" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ39" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK39" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL39" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM39" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN39" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO39" s="29"/>
@@ -7270,87 +7270,87 @@
       <c r="BR40" s="31"/>
       <c r="BS40" s="31"/>
       <c r="BT40" s="33">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BU40" s="33">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BV40" s="33">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BW40" s="33">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BX40" s="33">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY40" s="33">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="33">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="CA40" s="33">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="CB40" s="33">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU40" s="33">
+      <c r="CC40" s="33">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BV40" s="33">
+      <c r="CD40" s="33">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="BW40" s="33">
+      <c r="CE40" s="33">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BX40" s="33">
+      <c r="CF40" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG40" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH40" s="33">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY40" s="33">
+      <c r="CI40" s="33">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BZ40" s="33">
+      <c r="CJ40" s="33">
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="CA40" s="33">
+      <c r="CK40" s="33">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="CB40" s="33">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="CC40" s="33">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="CD40" s="33">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CE40" s="33">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="CF40" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG40" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH40" s="33">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="CI40" s="33">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="CJ40" s="33">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK40" s="33">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="CL40" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM40" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN40" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO40" s="29"/>
@@ -7429,87 +7429,87 @@
       <c r="BR41" s="31"/>
       <c r="BS41" s="31"/>
       <c r="BT41" s="33">
-        <f t="shared" ref="BT41:BT50" si="93">SUM(D41,F41,H41,J41,L41,N41,P41)</f>
+        <f t="shared" ref="BT41:BT50" si="84">SUM(D41,F41,H41,J41,L41,N41,P41)</f>
         <v>0</v>
       </c>
       <c r="BU41" s="33">
-        <f t="shared" ref="BU41:BU50" si="94">SUM(E41,G41,I41,K41,M41,O41,Q41)</f>
+        <f t="shared" ref="BU41:BU50" si="85">SUM(E41,G41,I41,K41,M41,O41,Q41)</f>
         <v>0</v>
       </c>
       <c r="BV41" s="33">
-        <f t="shared" ref="BV41:BV50" si="95">SUM(X41,R41,T41,V41,Z41,AB41,AD41)</f>
+        <f t="shared" ref="BV41:BV50" si="86">SUM(X41,R41,T41,V41,Z41,AB41,AD41)</f>
         <v>0</v>
       </c>
       <c r="BW41" s="33">
-        <f t="shared" ref="BW41:BW50" si="96">SUM(Y41,S41,U41,W41,AA41,AC41,AE41)</f>
+        <f t="shared" ref="BW41:BW50" si="87">SUM(Y41,S41,U41,W41,AA41,AC41,AE41)</f>
         <v>0</v>
       </c>
       <c r="BX41" s="33">
-        <f t="shared" ref="BX41:BX50" si="97">SUM(AF41,AH41,AJ41,AL41,AN41,AP41,AR41)</f>
+        <f t="shared" ref="BX41:BX50" si="88">SUM(AF41,AH41,AJ41,AL41,AN41,AP41,AR41)</f>
         <v>0</v>
       </c>
       <c r="BY41" s="33">
-        <f t="shared" ref="BY41:BY50" si="98">SUM(AG41,AI41,AK41,AM41,AO41,AQ41,AS41)</f>
+        <f t="shared" ref="BY41:BY50" si="89">SUM(AG41,AI41,AK41,AM41,AO41,AQ41,AS41)</f>
         <v>0</v>
       </c>
       <c r="BZ41" s="33">
-        <f t="shared" ref="BZ41:BZ50" si="99">SUM(AT41,AV41,AX41,AZ41,BB41,BD41,BF41)</f>
+        <f t="shared" ref="BZ41:BZ50" si="90">SUM(AT41,AV41,AX41,AZ41,BB41,BD41,BF41)</f>
         <v>0</v>
       </c>
       <c r="CA41" s="33">
-        <f t="shared" ref="CA41:CA50" si="100">SUM(AU41,AW41,AY41,BA41,BC41,BE41,BG41)</f>
+        <f t="shared" ref="CA41:CA50" si="91">SUM(AU41,AW41,AY41,BA41,BC41,BE41,BG41)</f>
         <v>0</v>
       </c>
       <c r="CB41" s="33">
-        <f t="shared" ref="CB41:CB50" si="101">SUM(BH41,BJ41)</f>
+        <f t="shared" ref="CB41:CB50" si="92">SUM(BH41,BJ41)</f>
         <v>0</v>
       </c>
       <c r="CC41" s="33">
-        <f t="shared" ref="CC41:CC50" si="102">SUM(BI41,BK41)</f>
+        <f t="shared" ref="CC41:CC50" si="93">SUM(BI41,BK41)</f>
         <v>0</v>
       </c>
       <c r="CD41" s="33">
-        <f t="shared" ref="CD41:CD50" si="103">SUM(BL41,BN41,BP41,BR41)</f>
+        <f t="shared" ref="CD41:CD50" si="94">SUM(BL41,BN41,BP41,BR41)</f>
         <v>0</v>
       </c>
       <c r="CE41" s="33">
-        <f t="shared" ref="CE41:CE50" si="104">SUM(BM41,BO41,BQ41,BS41)</f>
+        <f t="shared" ref="CE41:CE50" si="95">SUM(BM41,BO41,BQ41,BS41)</f>
         <v>0</v>
       </c>
       <c r="CF41" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG41" s="33">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="CG41" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="CH41" s="33">
-        <f t="shared" ref="CH41:CH50" si="105">CF41-CG41</f>
+        <f t="shared" ref="CH41:CH50" si="96">CF41-CG41</f>
         <v>0</v>
       </c>
       <c r="CI41" s="33">
-        <f t="shared" ref="CI41:CI50" si="106">SUM(BT41,BV41,BX41,BZ41,CB41)</f>
+        <f t="shared" ref="CI41:CI50" si="97">SUM(BT41,BV41,BX41,BZ41,CB41)</f>
         <v>0</v>
       </c>
       <c r="CJ41" s="33">
-        <f t="shared" ref="CJ41:CJ50" si="107">SUM(BU41,BW41,BY41,CA41,CC41)</f>
+        <f t="shared" ref="CJ41:CJ50" si="98">SUM(BU41,BW41,BY41,CA41,CC41)</f>
         <v>0</v>
       </c>
       <c r="CK41" s="33">
-        <f t="shared" ref="CK41:CK50" si="108">CJ41-CI41</f>
+        <f t="shared" ref="CK41:CK50" si="99">CJ41-CI41</f>
         <v>0</v>
       </c>
       <c r="CL41" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM41" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN41" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO41" s="29"/>
@@ -7588,87 +7588,87 @@
       <c r="BR42" s="31"/>
       <c r="BS42" s="31"/>
       <c r="BT42" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU42" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV42" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW42" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX42" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY42" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA42" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB42" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC42" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU42" s="33">
+      <c r="CD42" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV42" s="33">
+      <c r="CE42" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW42" s="33">
+      <c r="CF42" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG42" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH42" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX42" s="33">
+      <c r="CI42" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY42" s="33">
+      <c r="CJ42" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ42" s="33">
+      <c r="CK42" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA42" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB42" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC42" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD42" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE42" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF42" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG42" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH42" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI42" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ42" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK42" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL42" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM42" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN42" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO42" s="29"/>
@@ -7747,87 +7747,87 @@
       <c r="BR43" s="31"/>
       <c r="BS43" s="31"/>
       <c r="BT43" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU43" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV43" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW43" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX43" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY43" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ43" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA43" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB43" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC43" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU43" s="33">
+      <c r="CD43" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV43" s="33">
+      <c r="CE43" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW43" s="33">
+      <c r="CF43" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG43" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH43" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX43" s="33">
+      <c r="CI43" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY43" s="33">
+      <c r="CJ43" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ43" s="33">
+      <c r="CK43" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA43" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB43" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC43" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD43" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE43" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF43" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG43" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH43" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI43" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ43" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK43" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL43" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM43" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN43" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO43" s="29"/>
@@ -7906,87 +7906,87 @@
       <c r="BR44" s="31"/>
       <c r="BS44" s="31"/>
       <c r="BT44" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU44" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV44" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW44" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX44" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY44" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ44" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA44" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB44" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC44" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU44" s="33">
+      <c r="CD44" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV44" s="33">
+      <c r="CE44" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW44" s="33">
+      <c r="CF44" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG44" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH44" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX44" s="33">
+      <c r="CI44" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY44" s="33">
+      <c r="CJ44" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ44" s="33">
+      <c r="CK44" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA44" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB44" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC44" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD44" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE44" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF44" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG44" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH44" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI44" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ44" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK44" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL44" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM44" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN44" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO44" s="29"/>
@@ -8065,87 +8065,87 @@
       <c r="BR45" s="31"/>
       <c r="BS45" s="31"/>
       <c r="BT45" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU45" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV45" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW45" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX45" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY45" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ45" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA45" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB45" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC45" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU45" s="33">
+      <c r="CD45" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV45" s="33">
+      <c r="CE45" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW45" s="33">
+      <c r="CF45" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG45" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH45" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX45" s="33">
+      <c r="CI45" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY45" s="33">
+      <c r="CJ45" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ45" s="33">
+      <c r="CK45" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA45" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB45" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC45" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD45" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE45" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF45" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG45" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH45" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI45" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ45" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK45" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL45" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM45" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN45" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO45" s="29"/>
@@ -8224,87 +8224,87 @@
       <c r="BR46" s="31"/>
       <c r="BS46" s="31"/>
       <c r="BT46" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU46" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV46" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW46" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX46" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY46" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ46" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA46" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB46" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC46" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU46" s="33">
+      <c r="CD46" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV46" s="33">
+      <c r="CE46" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW46" s="33">
+      <c r="CF46" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG46" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH46" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX46" s="33">
+      <c r="CI46" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY46" s="33">
+      <c r="CJ46" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ46" s="33">
+      <c r="CK46" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA46" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB46" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC46" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD46" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE46" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF46" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG46" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH46" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI46" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ46" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK46" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL46" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM46" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN46" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO46" s="29"/>
@@ -8383,87 +8383,87 @@
       <c r="BR47" s="31"/>
       <c r="BS47" s="31"/>
       <c r="BT47" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU47" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV47" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW47" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX47" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY47" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA47" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB47" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC47" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU47" s="33">
+      <c r="CD47" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV47" s="33">
+      <c r="CE47" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW47" s="33">
+      <c r="CF47" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG47" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH47" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX47" s="33">
+      <c r="CI47" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY47" s="33">
+      <c r="CJ47" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ47" s="33">
+      <c r="CK47" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA47" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB47" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC47" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD47" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE47" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF47" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG47" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH47" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI47" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ47" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK47" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL47" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM47" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN47" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO47" s="29"/>
@@ -8542,87 +8542,87 @@
       <c r="BR48" s="31"/>
       <c r="BS48" s="31"/>
       <c r="BT48" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU48" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV48" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW48" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX48" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY48" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ48" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA48" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB48" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC48" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU48" s="33">
+      <c r="CD48" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV48" s="33">
+      <c r="CE48" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW48" s="33">
+      <c r="CF48" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG48" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH48" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX48" s="33">
+      <c r="CI48" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY48" s="33">
+      <c r="CJ48" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ48" s="33">
+      <c r="CK48" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA48" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB48" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC48" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD48" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE48" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF48" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG48" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH48" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI48" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ48" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK48" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL48" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM48" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN48" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO48" s="29"/>
@@ -8701,87 +8701,87 @@
       <c r="BR49" s="31"/>
       <c r="BS49" s="31"/>
       <c r="BT49" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU49" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV49" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW49" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX49" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY49" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ49" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA49" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB49" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC49" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU49" s="33">
+      <c r="CD49" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV49" s="33">
+      <c r="CE49" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW49" s="33">
+      <c r="CF49" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG49" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH49" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX49" s="33">
+      <c r="CI49" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY49" s="33">
+      <c r="CJ49" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ49" s="33">
+      <c r="CK49" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA49" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB49" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC49" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD49" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE49" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF49" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG49" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH49" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI49" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ49" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK49" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL49" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM49" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN49" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO49" s="29"/>
@@ -8860,87 +8860,87 @@
       <c r="BR50" s="31"/>
       <c r="BS50" s="31"/>
       <c r="BT50" s="33">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BU50" s="33">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="BV50" s="33">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="BW50" s="33">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="BX50" s="33">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BY50" s="33">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="33">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CA50" s="33">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CB50" s="33">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CC50" s="33">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BU50" s="33">
+      <c r="CD50" s="33">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="BV50" s="33">
+      <c r="CE50" s="33">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BW50" s="33">
+      <c r="CF50" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CG50" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CH50" s="33">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BX50" s="33">
+      <c r="CI50" s="33">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BY50" s="33">
+      <c r="CJ50" s="33">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="BZ50" s="33">
+      <c r="CK50" s="33">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="CA50" s="33">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="CB50" s="33">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="CC50" s="33">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="CD50" s="33">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="CE50" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="CF50" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="CG50" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="CH50" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="CI50" s="33">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="CJ50" s="33">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="CK50" s="33">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="CL50" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CM50" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CN50" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CO50" s="29"/>
@@ -29367,48 +29367,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="CF4:CH4"/>
-    <mergeCell ref="CI4:CK4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BV5:BW5"/>
-    <mergeCell ref="BX5:BY5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CD5:CE5"/>
-    <mergeCell ref="CL4:CN4"/>
-    <mergeCell ref="CF5:CH5"/>
-    <mergeCell ref="CI5:CK5"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BT5:BU5"/>
+    <mergeCell ref="BD5:BE5"/>
+    <mergeCell ref="BF5:BG5"/>
+    <mergeCell ref="BH5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BL5:BM5"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="CO5:CO6"/>
     <mergeCell ref="CP5:CP6"/>
     <mergeCell ref="C1:CN1"/>
@@ -29425,36 +29413,48 @@
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BT5:BU5"/>
-    <mergeCell ref="BD5:BE5"/>
-    <mergeCell ref="BF5:BG5"/>
-    <mergeCell ref="BH5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BL5:BM5"/>
-    <mergeCell ref="BN5:BO5"/>
-    <mergeCell ref="BP5:BQ5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="CL4:CN4"/>
+    <mergeCell ref="CF5:CH5"/>
+    <mergeCell ref="CI5:CK5"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="BV5:BW5"/>
+    <mergeCell ref="BX5:BY5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CD5:CE5"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="CF4:CH4"/>
+    <mergeCell ref="CI4:CK4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:BS50">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="W">
